--- a/DATA_goal/Junction_Flooding_476.xlsx
+++ b/DATA_goal/Junction_Flooding_476.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="6" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="6" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="5" max="5"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="6" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>44807.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.68</v>
+        <v>16.81</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.13</v>
+        <v>11.26</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.38</v>
+        <v>3.77</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>3.58</v>
+        <v>35.81</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.79</v>
+        <v>27.94</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.23</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.07</v>
+        <v>40.65</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.04</v>
+        <v>20.36</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.84</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.4</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.41</v>
+        <v>14.08</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.46</v>
+        <v>14.6</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.42</v>
+        <v>4.22</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.16</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.83</v>
+        <v>18.25</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.14</v>
+        <v>11.43</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.34</v>
+        <v>3.37</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>19.29</v>
+        <v>192.92</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.65</v>
+        <v>36.53</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.21</v>
+        <v>12.15</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.38</v>
+        <v>23.79</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.2</v>
+        <v>12.05</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.32</v>
+        <v>3.16</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.08</v>
+        <v>20.79</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.96</v>
+        <v>9.56</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.15</v>
+        <v>11.53</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.85</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.33</v>
+        <v>3.32</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.64</v>
+        <v>36.38</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.65</v>
+        <v>6.54</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.52</v>
+        <v>15.18</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44807.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.26</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.19</v>
+        <v>1.89</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.76</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>0.93</v>
+        <v>9.25</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.16</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.23</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.75</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.14</v>
+        <v>1.39</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.3</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="W3" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X3" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="Y3" s="4" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="Z3" s="4" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="AA3" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AB3" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AC3" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AD3" s="4" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AE3" s="4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF3" s="4" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AG3" s="4" t="n">
         <v>0.15</v>
       </c>
-      <c r="X3" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Y3" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="Z3" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="AA3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="AB3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AC3" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AD3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="AF3" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="AG3" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="AH3" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44807.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.77</v>
+        <v>17.7</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.3</v>
+        <v>13.04</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.14</v>
+        <v>1.35</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.86</v>
+        <v>38.58</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.12</v>
+        <v>31.2</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.4</v>
+        <v>13.99</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.89</v>
+        <v>48.94</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.15</v>
+        <v>21.52</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.4</v>
+        <v>14.04</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.54</v>
+        <v>15.45</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.63</v>
+        <v>16.27</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.47</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.91</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.97</v>
+        <v>19.66</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.85</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.1</v>
+        <v>1.04</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.87</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>20.44</v>
+        <v>204.38</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.87</v>
+        <v>38.73</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.28</v>
+        <v>12.84</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.58</v>
+        <v>25.85</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.36</v>
+        <v>13.56</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.23</v>
+        <v>2.27</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.44</v>
+        <v>24.35</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.13</v>
+        <v>11.34</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.08</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.89</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.62</v>
+        <v>16.24</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>4.42</v>
+        <v>44.21</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.71</v>
+        <v>7.14</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.61</v>
+        <v>16.05</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44807.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.25</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.3</v>
+        <v>3.02</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.35</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.19</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.4</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>1.81</v>
+        <v>18.14</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.22</v>
+        <v>2.19</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.19</v>
       </c>
       <c r="L5" s="4" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="S5" s="4" t="n">
         <v>0.37</v>
       </c>
-      <c r="M5" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.04</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>4.42</v>
+        <v>44.24</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.98</v>
+        <v>9.77</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.38</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.23</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.84</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.28</v>
+        <v>2.76</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.25</v>
+        <v>2.54</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.3</v>
+        <v>2.99</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.93</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.55</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.71</v>
+        <v>17.06</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.64</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_476.xlsx
+++ b/DATA_goal/Junction_Flooding_476.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44807.54861111111</v>
+        <v>45157.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>16.81</v>
+        <v>10.232</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.26</v>
+        <v>6.988</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.77</v>
+        <v>3.382</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>35.81</v>
+        <v>22.493</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>27.94</v>
+        <v>16.551</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.23</v>
+        <v>7.711</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>40.65</v>
+        <v>22.993</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>20.36</v>
+        <v>12.747</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.359999999999999</v>
+        <v>5.033</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>12.4</v>
+        <v>6.872</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.08</v>
+        <v>8.682</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>14.6</v>
+        <v>9.968</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.22</v>
+        <v>2.214</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.16</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>18.25</v>
+        <v>11.091</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.43</v>
+        <v>7.662</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.37</v>
+        <v>2.404</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.22</v>
+        <v>1.071</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>192.92</v>
+        <v>118.497</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>36.53</v>
+        <v>22.775</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.15</v>
+        <v>7.635</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>23.79</v>
+        <v>14.429</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.05</v>
+        <v>7.663</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.16</v>
+        <v>2.148</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>20.79</v>
+        <v>12.965</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.73</v>
+        <v>6.744</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.56</v>
+        <v>6.372</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.53</v>
+        <v>7.242</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.85</v>
+        <v>9.571</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.32</v>
+        <v>2.474</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>36.38</v>
+        <v>20.428</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.54</v>
+        <v>3.858</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>15.18</v>
+        <v>9.544</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44807.55555555555</v>
+        <v>45157.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.87</v>
+        <v>14.189</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.26</v>
+        <v>10.401</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.26</v>
+        <v>1.684</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.89</v>
+        <v>31.258</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.61</v>
+        <v>24.718</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.76</v>
+        <v>10.979</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>9.25</v>
+        <v>41.511</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.16</v>
+        <v>17.405</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.29</v>
+        <v>7.615</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.23</v>
+        <v>10.755</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.67</v>
+        <v>12.432</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.61</v>
+        <v>13.53</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.29</v>
+        <v>3.359</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.75</v>
+        <v>11.279</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.04</v>
+        <v>15.772</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.04</v>
+        <v>9.885</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.39</v>
+        <v>1.232</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.63</v>
+        <v>0.7</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>4.3</v>
+        <v>164.346</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.71</v>
+        <v>31.51</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>10.411</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.54</v>
+        <v>20.791</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.52</v>
+        <v>10.925</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.78</v>
+        <v>1.889</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>4.14</v>
+        <v>21.169</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.61</v>
+        <v>9.196</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>8.345000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.87</v>
+        <v>9.747</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.73</v>
+        <v>13.191</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.25</v>
+        <v>1.101</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.300000000000001</v>
+        <v>37.885</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.15</v>
+        <v>5.654</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.89</v>
+        <v>13.016</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44807.5625</v>
+        <v>45157.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.7</v>
+        <v>6.559</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.04</v>
+        <v>4.785</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.35</v>
+        <v>0.974</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>38.58</v>
+        <v>14.592</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>31.2</v>
+        <v>11.303</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.99</v>
+        <v>5.028</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>48.94</v>
+        <v>23.508</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>21.52</v>
+        <v>8.1</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>3.582</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.04</v>
+        <v>4.796</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>15.45</v>
+        <v>5.802</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>16.27</v>
+        <v>6.383</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.47</v>
+        <v>1.506</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.91</v>
+        <v>5.263</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>19.66</v>
+        <v>7.318</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.85</v>
+        <v>4.749</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.04</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.87</v>
+        <v>0.349</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>204.38</v>
+        <v>72.81</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>38.73</v>
+        <v>14.87</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.84</v>
+        <v>4.858</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>25.85</v>
+        <v>9.702</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.56</v>
+        <v>5.055</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.27</v>
+        <v>0.944</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>24.35</v>
+        <v>11.452</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.34</v>
+        <v>4.291</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.08</v>
+        <v>3.962</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.89</v>
+        <v>4.618</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>16.24</v>
+        <v>6.156</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.708</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>44.21</v>
+        <v>21.669</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.14</v>
+        <v>2.572</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>16.05</v>
+        <v>6.075</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44807.56944444445</v>
+        <v>45157.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.25</v>
+        <v>3.71</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.02</v>
+        <v>2.69</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.67</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>9.35</v>
+        <v>8.34</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.19</v>
+        <v>6.32</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.4</v>
+        <v>2.81</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>18.14</v>
+        <v>14.15</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.24</v>
+        <v>4.61</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.19</v>
+        <v>2.07</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.19</v>
+        <v>2.61</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.74</v>
+        <v>3.32</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.9</v>
+        <v>3.69</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.1</v>
+        <v>0.82</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.38</v>
+        <v>3.01</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.78</v>
+        <v>4.14</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.07</v>
+        <v>2.79</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.61</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.37</v>
+        <v>0.21</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>44.24</v>
+        <v>38.47</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>9.77</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.12</v>
+        <v>2.78</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.38</v>
+        <v>5.5</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.23</v>
+        <v>2.86</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.58</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>6.81</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.76</v>
+        <v>2.45</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.54</v>
+        <v>2.3</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.99</v>
+        <v>2.68</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.93</v>
+        <v>3.52</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>17.06</v>
+        <v>13.01</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.64</v>
+        <v>1.43</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.91</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44807.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.17</v>
+        <v>3.47</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_476.xlsx
+++ b/DATA_goal/Junction_Flooding_476.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,11 +454,11 @@
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -468,9 +468,9 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45157.50694444445</v>
+        <v>44807.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>10.232</v>
+        <v>16.815</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>6.988</v>
+        <v>11.263</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.382</v>
+        <v>3.771</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>22.493</v>
+        <v>35.807</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>16.551</v>
+        <v>27.941</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>7.711</v>
+        <v>13.232</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>22.993</v>
+        <v>40.653</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>12.747</v>
+        <v>20.36</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>5.033</v>
+        <v>8.363</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>6.872</v>
+        <v>12.4</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>8.682</v>
+        <v>14.083</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>9.968</v>
+        <v>14.597</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.214</v>
+        <v>4.223</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>8.271000000000001</v>
+        <v>13.159</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>11.091</v>
+        <v>18.251</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>7.662</v>
+        <v>11.431</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>2.404</v>
+        <v>3.368</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.071</v>
+        <v>2.219</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>118.497</v>
+        <v>192.924</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>22.775</v>
+        <v>36.527</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>7.635</v>
+        <v>12.146</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>14.429</v>
+        <v>23.789</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>7.663</v>
+        <v>12.048</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.148</v>
+        <v>3.162</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>12.965</v>
+        <v>20.789</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>6.744</v>
+        <v>10.728</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>6.372</v>
+        <v>9.564</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>7.242</v>
+        <v>11.528</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>9.571</v>
+        <v>14.849</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.474</v>
+        <v>3.316</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>20.428</v>
+        <v>36.381</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.858</v>
+        <v>6.54</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>9.544</v>
+        <v>15.185</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45157.51388888889</v>
+        <v>44807.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>14.189</v>
+        <v>0.871</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.401</v>
+        <v>0.258</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.684</v>
+        <v>1.26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>31.258</v>
+        <v>1.891</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>24.718</v>
+        <v>0.61</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.979</v>
+        <v>0.765</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>41.511</v>
+        <v>9.253</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>17.405</v>
+        <v>1.163</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.615</v>
+        <v>0.293</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>10.755</v>
+        <v>0.232</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.432</v>
+        <v>0.674</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>13.53</v>
+        <v>0.605</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.359</v>
+        <v>0.286</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>11.279</v>
+        <v>0.752</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.772</v>
+        <v>1.041</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.885</v>
+        <v>1.038</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.232</v>
+        <v>1.393</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.7</v>
+        <v>0.634</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>164.346</v>
+        <v>4.298</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>31.51</v>
+        <v>2.709</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.411</v>
+        <v>0.694</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20.791</v>
+        <v>1.536</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.925</v>
+        <v>0.525</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.889</v>
+        <v>0.782</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>21.169</v>
+        <v>4.142</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.196</v>
+        <v>0.613</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.345000000000001</v>
+        <v>0.6919999999999999</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.747</v>
+        <v>0.874</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>13.191</v>
+        <v>0.726</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.101</v>
+        <v>1.247</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>37.885</v>
+        <v>9.305</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.654</v>
+        <v>0.151</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>13.016</v>
+        <v>0.887</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45157.52083333334</v>
+        <v>44807.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.559</v>
+        <v>17.696</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.785</v>
+        <v>13.044</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.974</v>
+        <v>1.354</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>14.592</v>
+        <v>38.58</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>11.303</v>
+        <v>31.204</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.028</v>
+        <v>13.989</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>23.508</v>
+        <v>48.935</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.1</v>
+        <v>21.524</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.582</v>
+        <v>9.356999999999999</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.796</v>
+        <v>14.037</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.802</v>
+        <v>15.447</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.383</v>
+        <v>16.273</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.506</v>
+        <v>4.465</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.263</v>
+        <v>13.911</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.318</v>
+        <v>19.665</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.749</v>
+        <v>11.848</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.8080000000000001</v>
+        <v>1.045</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.349</v>
+        <v>0.874</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>72.81</v>
+        <v>204.384</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>14.87</v>
+        <v>38.726</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.858</v>
+        <v>12.84</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.702</v>
+        <v>25.845</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.055</v>
+        <v>13.556</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.944</v>
+        <v>2.273</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>11.452</v>
+        <v>24.354</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.291</v>
+        <v>11.342</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.962</v>
+        <v>10.076</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.618</v>
+        <v>11.892</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>6.156</v>
+        <v>16.243</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.708</v>
+        <v>0.766</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>21.669</v>
+        <v>44.207</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.572</v>
+        <v>7.145</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.075</v>
+        <v>16.053</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45157.52777777778</v>
+        <v>44807.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.71</v>
+        <v>4.253</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.69</v>
+        <v>3.018</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.67</v>
+        <v>0.694</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.34</v>
+        <v>9.355</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.32</v>
+        <v>7.187</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>2.81</v>
+        <v>3.404</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>14.15</v>
+        <v>18.136</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.61</v>
+        <v>5.236</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>2.188</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>3.193</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>3.737</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>3.904</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.098</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>3.384</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>4.783</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>3.067</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>44.236</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>9.769</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>3.123</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>6.384</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>8.388999999999999</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>2.759</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>2.536</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>2.993</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>3.927</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>17.058</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>1.641</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>3.908</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44807.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>9.869999999999999</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="L6" s="4" t="n">
         <v>2.07</v>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="M6" s="4" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="P6" s="4" t="n">
         <v>2.61</v>
       </c>
-      <c r="L5" s="4" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>38.47</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>2.78</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>6.81</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>13.01</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>3.47</v>
+      <c r="Q6" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>2.17</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_476.xlsx
+++ b/DATA_goal/Junction_Flooding_476.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,11 +454,11 @@
     <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
     <col width="8" customWidth="1" min="15" max="15"/>
     <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
     <col width="9" customWidth="1" min="20" max="20"/>
@@ -468,9 +468,9 @@
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44807.54861111111</v>
+        <v>45157.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>16.815</v>
+        <v>10.232</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>11.263</v>
+        <v>6.988</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.771</v>
+        <v>3.382</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>35.807</v>
+        <v>22.493</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>27.941</v>
+        <v>16.551</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>13.232</v>
+        <v>7.711</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>40.653</v>
+        <v>22.993</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>20.36</v>
+        <v>12.747</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>8.363</v>
+        <v>5.033</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>12.4</v>
+        <v>6.872</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>14.083</v>
+        <v>8.682</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>14.597</v>
+        <v>9.968</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.223</v>
+        <v>2.214</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>13.159</v>
+        <v>8.271000000000001</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>18.251</v>
+        <v>11.091</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>11.431</v>
+        <v>7.662</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.368</v>
+        <v>2.404</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.219</v>
+        <v>1.071</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>192.924</v>
+        <v>118.497</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>36.527</v>
+        <v>22.775</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>12.146</v>
+        <v>7.635</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>23.789</v>
+        <v>14.429</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>12.048</v>
+        <v>7.663</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.162</v>
+        <v>2.148</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>20.789</v>
+        <v>12.965</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>10.728</v>
+        <v>6.744</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>9.564</v>
+        <v>6.372</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>11.528</v>
+        <v>7.242</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>14.849</v>
+        <v>9.571</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.316</v>
+        <v>2.474</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>36.381</v>
+        <v>20.428</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>6.54</v>
+        <v>3.858</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>15.185</v>
+        <v>9.544</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44807.55555555555</v>
+        <v>45157.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.871</v>
+        <v>14.189</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.258</v>
+        <v>10.401</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.26</v>
+        <v>1.684</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.891</v>
+        <v>31.258</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>0.61</v>
+        <v>24.718</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.765</v>
+        <v>10.979</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>9.253</v>
+        <v>41.511</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.163</v>
+        <v>17.405</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.293</v>
+        <v>7.615</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.232</v>
+        <v>10.755</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.674</v>
+        <v>12.432</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.605</v>
+        <v>13.53</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.286</v>
+        <v>3.359</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.752</v>
+        <v>11.279</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1.041</v>
+        <v>15.772</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.038</v>
+        <v>9.885</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.393</v>
+        <v>1.232</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.634</v>
+        <v>0.7</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>4.298</v>
+        <v>164.346</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>2.709</v>
+        <v>31.51</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.694</v>
+        <v>10.411</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.536</v>
+        <v>20.791</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.525</v>
+        <v>10.925</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.782</v>
+        <v>1.889</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>4.142</v>
+        <v>21.169</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.613</v>
+        <v>9.196</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.6919999999999999</v>
+        <v>8.345000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.874</v>
+        <v>9.747</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.726</v>
+        <v>13.191</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.247</v>
+        <v>1.101</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>9.305</v>
+        <v>37.885</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.151</v>
+        <v>5.654</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.887</v>
+        <v>13.016</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44807.5625</v>
+        <v>45157.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>17.696</v>
+        <v>6.559</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>13.044</v>
+        <v>4.785</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.354</v>
+        <v>0.974</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>38.58</v>
+        <v>14.592</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>31.204</v>
+        <v>11.303</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>13.989</v>
+        <v>5.028</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>48.935</v>
+        <v>23.508</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>21.524</v>
+        <v>8.1</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>9.356999999999999</v>
+        <v>3.582</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>14.037</v>
+        <v>4.796</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>15.447</v>
+        <v>5.802</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>16.273</v>
+        <v>6.383</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>4.465</v>
+        <v>1.506</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>13.911</v>
+        <v>5.263</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>19.665</v>
+        <v>7.318</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>11.848</v>
+        <v>4.749</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.045</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.874</v>
+        <v>0.349</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>204.384</v>
+        <v>72.81</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>38.726</v>
+        <v>14.87</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>12.84</v>
+        <v>4.858</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>25.845</v>
+        <v>9.702</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>13.556</v>
+        <v>5.055</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.273</v>
+        <v>0.944</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>24.354</v>
+        <v>11.452</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>11.342</v>
+        <v>4.291</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>10.076</v>
+        <v>3.962</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>11.892</v>
+        <v>4.618</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>16.243</v>
+        <v>6.156</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.766</v>
+        <v>0.708</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>44.207</v>
+        <v>21.669</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>7.145</v>
+        <v>2.572</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>16.053</v>
+        <v>6.075</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44807.56944444445</v>
+        <v>45157.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.253</v>
+        <v>3.71</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.018</v>
+        <v>2.69</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.694</v>
+        <v>0.67</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>9.355</v>
+        <v>8.34</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.187</v>
+        <v>6.32</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.404</v>
+        <v>2.81</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>18.136</v>
+        <v>14.15</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>5.236</v>
+        <v>4.61</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.188</v>
+        <v>2.07</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.193</v>
+        <v>2.61</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.737</v>
+        <v>3.32</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.904</v>
+        <v>3.69</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.098</v>
+        <v>0.82</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.384</v>
+        <v>3.01</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.783</v>
+        <v>4.14</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.067</v>
+        <v>2.79</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.61</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.368</v>
+        <v>0.21</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>44.236</v>
+        <v>38.47</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>9.769</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>3.123</v>
+        <v>2.78</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>6.384</v>
+        <v>5.5</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.23</v>
+        <v>2.86</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.779</v>
+        <v>0.58</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.388999999999999</v>
+        <v>6.81</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.759</v>
+        <v>2.45</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.536</v>
+        <v>2.3</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.993</v>
+        <v>2.68</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.927</v>
+        <v>3.52</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.553</v>
+        <v>0.52</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>17.058</v>
+        <v>13.01</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.641</v>
+        <v>1.43</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.908</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44807.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>2.91</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>21.3</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>5.39</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>9.19</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>2.17</v>
+        <v>3.47</v>
       </c>
     </row>
   </sheetData>
